--- a/燃料油/eta/新加坡高硫燃料油380裂解价差_月度数据.xlsx
+++ b/燃料油/eta/新加坡高硫燃料油380裂解价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-6.2818</v>
+        <v>-7.401</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.0406</v>
+        <v>-4.0874</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.6781</v>
+        <v>-4.6569</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-5.1517</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.2533</v>
+        <v>-5.1177</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-4.3881</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.3606</v>
+        <v>-4.3558</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>-4.5846</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.5526</v>
+        <v>-4.5606</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>-1.2481</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.323</v>
+        <v>-1.3136</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>1.9779</v>
       </c>
       <c r="C8" t="n">
-        <v>1.9093</v>
+        <v>1.913</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>-0.6364</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.634</v>
+        <v>-0.6357</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-3.2926</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.3027</v>
+        <v>-3.3047</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>-0.4066</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5013</v>
+        <v>-0.4938</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>-4.8732</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.8808</v>
+        <v>-4.8931</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>-5.1491</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.1568</v>
+        <v>-5.1422</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>-6.1579</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.0743</v>
+        <v>-6.073</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>-7.3679</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.4148</v>
+        <v>-7.412</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>-9.9754</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.9277</v>
+        <v>-9.9337</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>-8.802099999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.7758</v>
+        <v>-8.7752</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>-6.3286</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.3361</v>
+        <v>-6.3506</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>-6.4666</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.4735</v>
+        <v>-6.474</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>-5.6809</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.787</v>
+        <v>-5.7975</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>-10.9726</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.9696</v>
+        <v>-10.9687</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>-11.7265</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.7302</v>
+        <v>-11.7297</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>-14.0189</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.9719</v>
+        <v>-13.9702</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>-12.2168</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.1954</v>
+        <v>-12.1854</v>
       </c>
     </row>
     <row r="25">
